--- a/Blog7/src/main/resources/TestData.xlsx
+++ b/Blog7/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishna\eclipse-workspace\ICTAK Project\Blog7\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F7E95-A6DB-4F40-B088-652F4CD0FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361C2B1-961A-4177-A9F7-3EA9BAA5A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="2148" windowWidth="14544" windowHeight="8460" xr2:uid="{40AA5F77-83A6-4432-9943-763EE47179DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40AA5F77-83A6-4432-9943-763EE47179DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Student001</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>student001@gmail.com</t>
-  </si>
-  <si>
     <t>Password1</t>
+  </si>
+  <si>
+    <t>Student002</t>
+  </si>
+  <si>
+    <t>student002@gmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Student003</t>
+  </si>
+  <si>
+    <t>student003</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>Student004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>student004@gmail.com</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>student005@gmail.com</t>
+  </si>
+  <si>
+    <t>Password4</t>
+  </si>
+  <si>
+    <t>Student005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw0NDQ4ODg0PDhAPDQ0NDw0NDQ8NDQ0OFREXFhURFRUYHSggGBolGxUVITIhJikrMS8uFx81ODMsNygtLjcBCgoKDg0OFw8QFSsdHR0uKy0tLS0tLSstLS0rLSsrKysrKzctLS0tLS0tLS0rKy0rKystLS0rLSstLSstKy0uLv/AABEIAJsBRAMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAgEDBAUGB//EAEIQAAICAQEDBwkDCwMFAAAAAAABAhEDBAUSIQYTMUFRcZEiUmFyc4GhsbIjMjMHFCQlQoKSorPB8IPC0URTY5O0/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAECAwQF/8QAIxEBAQACAgIBBAMAAAAAAAAAAAECEQMxEiEyEyJRYQRBof/aAAwDAQACEQMRAD8A+ugRYWbYSBFhYEgRYWBIEWFgSBFhYEgRYWBIEWFgAEWAEgAAQFDEpALQUPRNBSUFD0TRAlBQ9E0BXRND0FAJuhullBQFdE0PQboCURRZQUAlBQ9BQCUFD0FAV0FFlEUAlAPQAZ7CxbCzTJrCxbCwGsLFsLAawsWwsBrCxbCwGsLFsLAawsWwsBrAWybAYlColBTIZIVDoglIlIlIZIiqs2SOOO9N7q7WNinGauLTKdpcMd70YKNyc5uoRSi3bfUjk6bUW4uElCTW8t2SliyrzoyXBru7eKVmpNxLdV36CjLptepPdyLcl6fus20Zs0suyUFD0fH5R2htHPl1OfXTjgc8mPDp4Y0oQ3XTcYt7rSdq5qW9V0k0iyW+oWydvp2q2zo8L3Z6jHveZGXOTb7N2Ns4eu5eaPHJ44KU8iTlzTahlrtWJXkku6J5rDsLBVT5zMnHdlHJkawzXpww3cT/AITXrNhQnpXp4xnpcUtzjpK08koyTpUuCdV3M39K/lz+pP6acvKzaGb8DSuCatTnBYoP0PnWskX/AKTMWbHtDU/j6tQi004Y3kzSi35s24wrvxs6NAbnHixeTJ3ORunni0jxz1GbU7maahk1EoyyqDjF7jcUk0m3XDgml1Hdo5nJr8CftpfRA6tHHLuu2PULQUNQURotBQ1BQCUFD0FAJQDUAHOsLEsLNsHsLEsLAewsSwsB7CxLCwHsLEsLAewsSybAawsSybAewTEsmyCxEoRMZMCxDoriWRIqxDoRDxIrkcsNnS1mztVpoNKebBlxwb4R33B7qfourPKfkvWbJo56TU6eeOOmySxRWRSjOLVPdvtTlKmuhUuo9Zyvjnez9UtO5LM9Pm5rcdT5zm5UovqfZ6Tzf5MeUX53o4wnOU8uG4znLjvrg1Lwkl+7fWUek1mkeNJSe/BulLolF9j/AM7OBmw7RyafpvLi/ngjp7UyR5l8emeN12eWjgZsjTtM3j7ntjL109Po9Xizx38clJdfbF9jXUfONhR/Roe11P8AWkdOGXNhk56aWOLlm06lCeNN05pPcmmmuF+S7VX0FXJHTLJghf3Vl1Ll3c9Lgak8cmcr5R1Nn6NUpyXpin82add+GzRPpMmvfkpdrs0y5biK0XuBXJGmNPR8mfwJ+2l9EDrUcrkz+BP20vogdc82XdenHqFAagojRaChqIoCKCiaACKAkAOLYWJYWbcz2FiWFgPYWJYWA9hYlhYD2FiWFgPYWJYWA9hYlhYFlk2V2SmBamMmVJjphVsWWxKIstiQXRLEVwi+xlsYS7CNORyv1mXT7O1WfDFSy4cGbLji05Jzjik1aXTxXQeV/J7tbBq9I80YYceeeTJLVLDjWNyzeTvTaS61uO/d1Ht9rRrFxp+UlXTfBnjNgcnNJs6WaWmjKPOzct1yuEItR8iC6ord67fFmsZtnKu3r832b9bH9cTmZZmjWz8h+tD60YMkjrjHK0RlxXr4/wDcauSNR0GN9csuqb/981Rhg+K9aH+40clpfoGFL/uar/6Jl19xL9ru43vMXU4VvXLuUV2ekfC1BX0t8F/cjIvH5GMr7WMWeCvguHDxMWRHQyowZS41nJ6Hkx+BP20vogdg5PJb8Cftn9EDsWjjl3XfHqEAa0FmWigMQUQBIAQBIAeesLEsLOjkewsSwsB7CxLCwHsLEsLAewsSwsB7CxLCwHsLEsawGGSETGTIqyKLYxRVFlsWFXQS7C+DMyml0sZZ+xeJlW6I9mBZpPr8OAyZPFdl21NPDwf7Uf7nnZyo7e039k++Jwcp1wnpyzvtn1eS4fvY/rRkmy/KZps7SOdoxvivWh8pGnkrOMdn4W3V5NT3v9IycEZMX3l60flI8frdfkx6XBHelLHKWp3seNJNfbS8mTvofT1e+jpxcc5OWY269Mcmdx47ZNvob25gc2scucrg5L7ndF9febdPqZzVrGn2Ljxfo4nzXYe21vJR06iuuU5PJLw4JeDPp+ytZHJjTSp0r634nT+Vx4cWvHHf7r53Debl5b58njPxE6jD3/M5moxtceq6v09h2ZK7fQl0t8EveczW5lxhF2rTb6nXYePF9bJ2eTH4E/bP6IHXOPyZf2M/bP6IHXs5Zd12x6iQIsLIqQIsmwAAsggkCCQPM2FiWFnVzPYWLZFgPYWJYWA9hYlhYD2FiWFgPYWLYWA9k2V2TZBYmOmVJjxYF0WRLL1LxIiynoCr4yLIyM6ZZFjSNUWWKRmjIsjIil2g/sn3x+Zw8p2dc/s3+78zi5WbwYz7Y8pmmacplmdo5oxfeXrL5SM+xdBh1WzsGPKqe/qXCa4Sg+fyfD0F+H73vXykLyai3s7A0+KlqGn/AK8xL48ksTPHy47GF7Byaeb3ZQl2OUOPwo6Wk1WoxqlNL1YR/ublqYyVTXh0ru/4I/Noy+7kj3Se6/ie/wCrjfnP8fEynLhl9s3P12sw5p5k7bcoq2m27XaiqUjXszTyhkcnVbrXDjbZVtDElLeXQ+ldj7Txcvj53x6fV/jZZ5ccuc1Xd5MP7Gftn9ETsWcTkw/sZ+2f0ROvZ5Mu692PSywsSwsjR7CxLCyGzWFi2FgNZIlkDQ81YWJYWdHM9hYlhYD2FiWFgPYWJYWA9hYlhZQ9gmJYWQWWSmV2TYFiY6ZSmOmFXxY+6pdPiUxZdBkUrwyXRx7unwITNUGXKMZdKT7ybNMcZFikaPzOD6G4/FCvQz6pJ99pl3DVZtZL7OX7vzRydTW7Frpad9Pb0/PwOtrsM4Y5OUaXDjaa6UcbUT8mPoT4Wu3sN4sZ9seVmabLsjM82dY5pw/e9/8AaQckX+r8Hraj+tMjA/K/zsYnJGX6vwetn/qyM5fKNT4uhqMHG0Tgi0WuZfhjGf3enrXWjXnZHC8c3tdhnSK9VTRLg0V5LMOvUdLky/scntn9ETsWcTk1O8WR/wDnk/5YnX3jll3XfHqLLJsr3g3jKrLCxN4N4Gz2FiWFgPYFdkhXmrCxLCzo5HsLEsLAewsSwsB7CxLCwHsLEsLAewsSwsCywsSybAdMdMqTGTCr4stgzNFlsZEGuDNEGYoSNEJGdNbbYSLoyMcJF0ZE01Kr2vx0+T91/wAyPI5ZHrdc7xTXoXzR5rW6VpOUeK611o6cfpy5JuuZkZRJlmRlEmd3Jbpn5X+djM/JSX6vwetn/qyLtM/L8fkzibE29pNNpOZ1OeGmy4MuaGXDnlzWVNy31UXxfCS6DGXyjU+L1DmVvK07Taa6GnTRw8vKByV6fR6jKurLmitDp+/fzU37osqhHamp+7KGGL6tJglqJV7fNu417osnnjFmGVephtnJFeUoTS65xprvaaONr+Wenk3ihOM58U8Wix5NVlfanub1fAz4eRUsrT1Mnmd/9Xmyax+7FHcxLwZ6LS8lMeKCjLecUuGLejgxL0c3jUY+5mPL8TTXj+a3cieeyaaeSeJ497PJwxynB5YQUIL7RRb3ZN292+hruPQc3Ps+KMPJvS48GPLHHjjjTyKTjBKKvdSuvcdiznbdusk0zc3LzfkHNy7PkabJsmzUZtyXmv4Bzcuz4o02FjZpn5qXZ8UTzUv8ZeFjZpRzMvR4gaLAbXUeNsLFsLOziawsWwsBrCxbCwGsLFsLAawsWwsBrCxbCwGsmxLCwLLGTKbJUwNCZZFmVZCyOVdpBrhIvhIxQyLtXiaIsaXbZCZbGZjjItjIzpdrdVL7OXcvmc+LNWeXkS7jJfBe8sSubtPZ1pzxr0uP/BwpHsYs5e1dmb95MaqXXHqZ1xy16rGWLi6b73ufyN2i2a9S3nyzcfKlCDioLO1GTi3LJW8uKdJdVcTBg4Tp8OEunuPR7GjWCKfn5v6syck9xcLqVGDZenxvejii5efO8mT+KVs1qDbrpLKLIcO8wp8UFjXDjLrl2ehCzJXEMjpEVbsvgsnrL5G6zn7PdKXevka94zZ7bl9Ld4neKd4neM6Xa3eDeKt4N4aNrbCyreDeGja2wKt4C6NvJAQB1cUhZAASBAASBAASBAASBAASBAASBBIASQAEkr0cCBkFPHLNftPxZbHVZF+18EUolAXvVTap7vgRz7pcFw9xUSQXLP6PiOtQux/AzEhFebS4pZFmUPLV9PBeF0y/QPcxqMuD3sj630zk10ehikhWpZo9vwZKzLt+ZlRITTdDLDzl72kJlyxfRJeKMpIVt0uWK3vKXV1o0c9Hzl4o5aJJpdupz0fOXig56PnLxRzEA0u3T56PnLxQc9Hzl4o5qGJo26HPR86P8SDn4+dHxRz0MNG27n4+cgMIDRt//9k=</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Mobile world….</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>NewAuthor</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Gaming…..</t>
+  </si>
+  <si>
+    <t>SampleURLhhhhhhhhhhhhhhyyyyyyyyyyyyyyyyyyyyyyyrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrccccccccccccccccccccccccccccccccccccccccccccccccccbnbvnbmn,nkljl,.llllllllllllllllllllllllljjjjjjjjjgfredddddddddddddcccccccvvvvvvvvbnmmmmmmmmmmmmmmmm</t>
+  </si>
+  <si>
+    <t>ICTAK test</t>
+  </si>
+  <si>
+    <t>ICTAK</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Sample Test</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>Change of author anme</t>
+  </si>
+  <si>
+    <t>Blank category</t>
+  </si>
+  <si>
+    <t>Post for blank category</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>123newstugirl</t>
+  </si>
+  <si>
+    <t>newstud22215girl@gmail.com</t>
+  </si>
+  <si>
+    <t>Testing purpose</t>
+  </si>
+  <si>
+    <t>Testing time</t>
+  </si>
+  <si>
+    <t>sonamoljames27@gmail.com</t>
+  </si>
+  <si>
+    <t>Sonamol123</t>
+  </si>
+  <si>
+    <t>anu@gmail.com</t>
+  </si>
+  <si>
+    <t>Sheena123</t>
+  </si>
+  <si>
+    <t>Abc123</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Sonamol!@#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>anu123@gmail.com</t>
+  </si>
+  <si>
+    <t>Anumol123</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Seline</t>
+  </si>
+  <si>
+    <t>https://wallpapercrafter.com/desktop6/1549926-Nature-Scenery-beautiful-nature-wallpapers-amazing.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>Gift of God.</t>
+  </si>
+  <si>
+    <t>NoImage</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>admn</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>trainer123@gmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>123456@</t>
+  </si>
+  <si>
+    <t>Arunname</t>
+  </si>
+  <si>
+    <t>TRAINER</t>
+  </si>
+  <si>
+    <t>trainer123025@gmail.com</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>123abc@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +260,29 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -77,16 +307,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{572F82AB-4A5C-4918-92C6-57E4041BED16}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,37 +642,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B2E2FF-4540-4DF2-8F13-BD8E9FFE57A3}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{3F80EBC7-B3F5-466B-85FE-ADB7EC0282AF}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{9C6BE3D4-CF23-40EB-B1D4-04027E41497B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2C521E08-93B2-46E6-B02D-2CADACF05013}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{81A4E63B-01C7-4104-A75C-52AA28B0F280}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{363AFE10-D2DE-4136-9F4B-9C9552F83E92}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{C3E6FFB0-EECE-4DF2-A6F4-5D0A2F9D2373}"/>
+    <hyperlink ref="A41" r:id="rId7" xr:uid="{AEC80F50-708D-476C-B08F-5C2A5CCBD1A4}"/>
+    <hyperlink ref="A42" r:id="rId8" xr:uid="{6E856CCE-FC6E-40DB-ABC1-FBDBF6CF59E1}"/>
+    <hyperlink ref="A43" r:id="rId9" xr:uid="{EC698F97-038C-4E50-9024-A37B8A12A0D0}"/>
+    <hyperlink ref="A44" r:id="rId10" xr:uid="{F59F880D-E8CE-4E7B-8C6F-523B53DAC4C0}"/>
+    <hyperlink ref="B44" r:id="rId11" xr:uid="{D8BF0B79-BE8E-4C49-A66C-DFEB7A6C9A9C}"/>
+    <hyperlink ref="A46" r:id="rId12" xr:uid="{C27F5929-97A0-4049-B2B3-2792E8F5BEA6}"/>
+    <hyperlink ref="A47" r:id="rId13" xr:uid="{643C5E43-AA37-4D2C-8B49-9C84C5DCC362}"/>
+    <hyperlink ref="A50" r:id="rId14" xr:uid="{506F1A64-DC09-4EA4-886C-436DC48BCF4D}"/>
+    <hyperlink ref="C62" r:id="rId15" tooltip="mailto:trainer123@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C63" r:id="rId16" tooltip="mailto:trainer123@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C65" r:id="rId17" tooltip="mailto:123456@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C67" r:id="rId18" tooltip="mailto:trainer123@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C61" r:id="rId19" xr:uid="{8B25F180-E2C5-4378-9D4E-DBE463F49B26}"/>
+    <hyperlink ref="A71" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A73" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A74" r:id="rId22" display="123@gmails.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A72" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>